--- a/物品清单/BOM.xlsx
+++ b/物品清单/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nwpu-nuedc\物品清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4AFAA-415D-47D0-820D-6227AAA036C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD44BA-53BD-406F-B682-3903D501A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1060" windowWidth="17660" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1709,6 +1709,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1840,22 +1843,22 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2166,17 +2169,18 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="25.7265625" style="5" customWidth="1"/>
     <col min="4" max="4" width="64.1796875" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="5"/>
   </cols>
@@ -2197,7 +2201,7 @@
       <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2266,7 +2270,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2443,9 +2447,7 @@
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14"/>
       <c r="E22" s="6"/>
-      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -2463,7 +2465,6 @@
       <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="14"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2520,7 +2521,7 @@
         <v>113</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="5">
+      <c r="F29" s="16">
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -2541,7 +2542,7 @@
         <v>114</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="5">
+      <c r="F30" s="16">
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -2566,7 +2567,6 @@
       <c r="B32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="14"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,6 @@
       <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="14"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2627,14 +2626,12 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -2712,7 +2709,6 @@
       <c r="C44" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="14"/>
       <c r="E44" s="13"/>
       <c r="H44" s="11" t="s">
         <v>17</v>
@@ -2722,21 +2718,17 @@
       <c r="A45" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
@@ -2748,7 +2740,7 @@
       <c r="D47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2759,32 +2751,28 @@
       <c r="B48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="14"/>
       <c r="D48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="14"/>
       <c r="D49" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
@@ -2794,11 +2782,11 @@
       <c r="D50" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
@@ -2810,7 +2798,7 @@
       </c>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -2822,40 +2810,35 @@
       </c>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="14"/>
       <c r="D53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="14"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
     </row>
   </sheetData>
@@ -2865,5 +2848,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/物品清单/BOM.xlsx
+++ b/物品清单/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nwpu-nuedc\物品清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD44BA-53BD-406F-B682-3903D501A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B298CE-B0B3-4B44-9A1F-BE5531CEAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1060" windowWidth="17660" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>INA226</t>
   </si>
@@ -1702,6 +1702,70 @@
       </rPr>
       <t>输入范围</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞洞板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cxz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基地有一堆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚克力底板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热风枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导热硅脂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐高温隔热垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1710,7 +1774,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1811,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,9 +1901,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,10 +1916,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2166,10 +2245,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2178,8 +2257,8 @@
     <col min="2" max="2" width="27.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="25.7265625" style="5" customWidth="1"/>
     <col min="4" max="4" width="64.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="5"/>
@@ -2201,7 +2280,7 @@
       <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2243,7 +2322,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2252,7 +2331,7 @@
       <c r="B5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -2264,7 +2343,7 @@
       <c r="C6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
       <c r="H6" s="8" t="s">
         <v>98</v>
       </c>
@@ -2277,7 +2356,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,12 +2366,12 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="6"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2303,12 +2382,12 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="6"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2374,477 +2453,570 @@
         <v>94</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="A16" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
+      <c r="A17" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="H17" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>66</v>
+      <c r="A18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>67</v>
+      <c r="A19" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>68</v>
+      <c r="A20" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>69</v>
+      <c r="A21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D24" s="17"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D25" s="17"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>106</v>
+      <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>96</v>
+      <c r="A31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="6"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="15">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E36" s="6"/>
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="E37" s="11"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A38" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B48" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E50" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B51" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E51" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B52" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="H44" s="11" t="s">
+      <c r="E53" s="12"/>
+      <c r="H53" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E57" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E58" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E59" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E62" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
-    <sortCondition descending="1" ref="A2:A55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
+    <sortCondition descending="1" ref="A2:A64"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/物品清单/BOM.xlsx
+++ b/物品清单/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nwpu-nuedc\物品清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B298CE-B0B3-4B44-9A1F-BE5531CEAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C7DB5-33D3-41A3-81BC-ADDE9A0D4482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8920" yWindow="1130" windowWidth="17660" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>INA226</t>
   </si>
@@ -53,9 +53,6 @@
     <t>1N4148</t>
   </si>
   <si>
-    <t>MOSFET</t>
-  </si>
-  <si>
     <t>GaN HEMT</t>
   </si>
   <si>
@@ -976,18 +973,6 @@
         <charset val="134"/>
       </rPr>
       <t>晶体管</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三极管</t>
     </r>
   </si>
   <si>
@@ -1766,6 +1751,215 @@
   </si>
   <si>
     <t>散热片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.768kHz 8MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-220</t>
+  </si>
+  <si>
+    <r>
+      <t>NCE(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无锡新洁能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-MOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-MOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>onsemi(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安森美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ST(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意法半导体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60V 120A 5mΩ@4.5V,60A 180W 2.4V@250uA 67nC@10V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100V 164A 4.5mΩ@10V,100A 263W 4V@250uA 74nC@10V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCEP60T12A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STP15810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDP045N10A-F102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C132693</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C126123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C181952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM70P04-VB</t>
+  </si>
+  <si>
+    <t>100V 110A 4.2mΩ@-10V,-20A 250W 4.5V@250uA 117nC@10V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40V -110A 4mΩ@-10V,-20A 375W -3V@250uA 185nC@10V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-220AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VBsemi(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微碧半导体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C18212456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOB411L-VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-60V -110A 8.5mΩ@-4.5V,-20A 272W -3V@250uA 240nC@10V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-263</t>
+  </si>
+  <si>
+    <t>SS8050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS8550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM317</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1970,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +2040,12 @@
       <name val="宋体"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1925,19 +2125,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2245,10 +2445,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="121" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2259,112 +2459,119 @@
     <col min="4" max="4" width="64.1796875" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" customWidth="1"/>
     <col min="8" max="8" width="24.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="5"/>
+    <col min="9" max="9" width="19.08984375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="11"/>
       <c r="H6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="8"/>
+      <c r="D7" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>0</v>
@@ -2372,15 +2579,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="6"/>
       <c r="H8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>1</v>
@@ -2388,635 +2595,777 @@
       <c r="D9" s="8"/>
       <c r="E9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="E17" s="11"/>
       <c r="H17" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="15">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="15">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>104</v>
+      </c>
       <c r="E37" s="11"/>
-      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="19"/>
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="15">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E49" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="18" t="s">
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>36</v>
+      <c r="E51" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="21"/>
+      <c r="A52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="H53" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>92</v>
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>18</v>
+      <c r="A56" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>14</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="H58" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>14</v>
+      <c r="A59" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="12"/>
+      <c r="A60" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="5">
+        <v>7805</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="5">
+        <v>7812</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="E69" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
-    <sortCondition descending="1" ref="A2:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H71">
+    <sortCondition descending="1" ref="A2:A71"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/物品清单/BOM.xlsx
+++ b/物品清单/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nwpu-nuedc\物品清单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MDLZ\Desktop\myOpenSource\nwpu-nuedc\物品清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C7DB5-33D3-41A3-81BC-ADDE9A0D4482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DBC9F5-D9DD-4551-B98E-552A1D312A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="1130" windowWidth="17660" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="160">
   <si>
     <t>INA226</t>
   </si>
@@ -1960,6 +1960,14 @@
   </si>
   <si>
     <t>LM317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zedboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digilent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,8 +2455,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="121" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2547,10 +2555,17 @@
       <c r="C6" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="E6" s="11"/>
-      <c r="H6" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
